--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Aufsetzen eigener Branch in RCS, Workspace einrichten, Testen</t>
+  </si>
+  <si>
+    <t>Vorbereiten Präsentationstechnikkurs</t>
+  </si>
+  <si>
+    <t>Feedback aus Kickoff verarbeiten</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,25 +524,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>41399</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>41400</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41400</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="4">
-        <f>SUM(C2:C34)</f>
-        <v>34</v>
+      <c r="C34" s="4">
+        <f>SUM(C2:C33)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Feedback aus Kickoff verarbeiten</t>
+  </si>
+  <si>
+    <t>Abstract und Projektantrag erarbeiten</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +560,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>41403</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -564,7 +578,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -54,7 +54,8 @@
     <t>Feedback aus Kickoff verarbeiten</t>
   </si>
   <si>
-    <t>Abstract und Projektantrag erarbeiten</t>
+    <t>Abstract und Projektantrag erarbeiten, Logo-/Bildsuche für Arbeit
+Templates vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -119,12 +120,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,7 +436,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,15 +567,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>41403</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +585,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -56,6 +56,9 @@
   <si>
     <t>Abstract und Projektantrag erarbeiten, Logo-/Bildsuche für Arbeit
 Templates vorbereiten</t>
+  </si>
+  <si>
+    <t>Projektantrag weitergeführt</t>
   </si>
 </sst>
 </file>
@@ -435,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +581,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>41406</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -585,7 +599,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -58,7 +58,8 @@
 Templates vorbereiten</t>
   </si>
   <si>
-    <t>Projektantrag weitergeführt</t>
+    <t>Projektantrag weitergeführt, Auffrischung Risikomanagement und
+sonstige Theorie</t>
   </si>
 </sst>
 </file>
@@ -438,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,11 +582,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41406</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>Projektantrag weitergeführt, Auffrischung Risikomanagement und
 sonstige Theorie</t>
+  </si>
+  <si>
+    <t>Theorie Migration E3 to E4 durchgelesen</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +596,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>41407</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -600,7 +614,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Theorie Migration E3 to E4 durchgelesen</t>
+  </si>
+  <si>
+    <t>Überarbeitung Projektantrag</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +610,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>41409</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -614,7 +628,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Überarbeitung Projektantrag</t>
+  </si>
+  <si>
+    <t>Risiken für Projektantrag</t>
+  </si>
+  <si>
+    <t>Projektantrag, Risiken etc</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>41410</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>41411</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -628,7 +656,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Projektantrag, Risiken etc</t>
+  </si>
+  <si>
+    <t>Projektantrag, Risiken etc, Evaluation welche Aspekte es gibt</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +652,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>41414</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -656,7 +670,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Projektantrag, Risiken etc, Evaluation welche Aspekte es gibt</t>
+  </si>
+  <si>
+    <t>Review und Korrekturen Projektantrag, Aufsetzen Github Issuetracking</t>
+  </si>
+  <si>
+    <t>Ideen für Aspekte sammeln (in E4 Büchern, Internet, ..)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +669,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>41415</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>41418</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -670,7 +698,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Ideen für Aspekte sammeln (in E4 Büchern, Internet, ..)</t>
+  </si>
+  <si>
+    <t>Ideen für Aspekte sammeln (in RCS), aufsetzen Workspace auf Laptop</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +694,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>41419</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -698,7 +712,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Ideen für Aspekte sammeln (in RCS), aufsetzen Workspace auf Laptop</t>
+  </si>
+  <si>
+    <t>Ideen für Aspekte sammeln (in RCS)</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +708,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>41420</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -712,7 +726,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Ideen für Aspekte sammeln (in RCS)</t>
+  </si>
+  <si>
+    <t>Ideen für Aspekte sammeln (in RCS, und sonst e3)</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +722,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>41421</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -726,7 +740,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Ideen für Aspekte sammeln (in RCS, und sonst e3)</t>
+  </si>
+  <si>
+    <t>Besprechung mit Betreuer, Planung anpassen, Versuche mit E3 E4 Mix</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +483,7 @@
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41387</v>
       </c>
@@ -502,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41388</v>
       </c>
@@ -513,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41391</v>
       </c>
@@ -524,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41392</v>
       </c>
@@ -534,8 +537,12 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>SUM(C2:C5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41394</v>
       </c>
@@ -546,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41395</v>
       </c>
@@ -557,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41396</v>
       </c>
@@ -568,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41399</v>
       </c>
@@ -578,8 +585,12 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>SUM(C6:C9)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41400</v>
       </c>
@@ -590,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41400</v>
       </c>
@@ -601,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41403</v>
       </c>
@@ -612,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41406</v>
       </c>
@@ -622,8 +633,12 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>SUM(C10:C13)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41407</v>
       </c>
@@ -634,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41409</v>
       </c>
@@ -645,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41410</v>
       </c>
@@ -656,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41411</v>
       </c>
@@ -666,8 +681,12 @@
       <c r="C17" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(C14:C17)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41414</v>
       </c>
@@ -678,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41415</v>
       </c>
@@ -689,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41418</v>
       </c>
@@ -700,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41419</v>
       </c>
@@ -711,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41420</v>
       </c>
@@ -721,8 +740,12 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>SUM(C18:C22)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41421</v>
       </c>
@@ -731,6 +754,17 @@
       </c>
       <c r="C23" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>41422</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,7 +774,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Besprechung mit Betreuer, Planung anpassen, Versuche mit E3 E4 Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templates Projektbericht und -handbuch </t>
+  </si>
+  <si>
+    <t>diverse Projektberichte studiert für Template Projektbericht</t>
   </si>
 </sst>
 </file>
@@ -472,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +773,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>SUM(C23:C25)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>41428</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -774,7 +806,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>diverse Projektberichte studiert für Template Projektbericht</t>
+  </si>
+  <si>
+    <t>Eclipse 4.3 Kepler + Migrationsmöglichkeiten analysiert</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,6 +802,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>41429</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -806,7 +820,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Eclipse 4.3 Kepler + Migrationsmöglichkeiten analysiert</t>
+  </si>
+  <si>
+    <t>Projekthandbuch, Statusbericht, Analyse workbench.xmi</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +816,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>41432</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -820,7 +834,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Projekthandbuch, Statusbericht, Analyse workbench.xmi</t>
+  </si>
+  <si>
+    <t>Verschiedene Migrationsmöglichkeiten in RCS durchprobiert</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,6 +830,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>41433</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>SUM(C26:C29)</f>
+        <v>19</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -834,7 +852,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Verschiedene Migrationsmöglichkeiten in RCS durchprobiert</t>
+  </si>
+  <si>
+    <t>LegacyIDE.e4xmi Ansatz genauer durchleuchtet</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,6 +848,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>41435</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -852,7 +866,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>LegacyIDE.e4xmi Ansatz genauer durchleuchtet</t>
+  </si>
+  <si>
+    <t>LegacyIDE.e4xmi und Fragment Ansatz ausprobiert</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +862,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>41436</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
@@ -866,7 +880,7 @@
       </c>
       <c r="C34" s="4">
         <f>SUM(C2:C33)</f>
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>LegacyIDE.e4xmi und Fragment Ansatz ausprobiert</t>
+  </si>
+  <si>
+    <t>Neue Worskspaces augesetzt</t>
+  </si>
+  <si>
+    <t>LegacyIDE.e4xmi, Fragment und Prozessor Ansatz ausprobiert, Versionprobleme</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,14 +879,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>41437</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>41439</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>41441</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="4">
-        <f>SUM(C2:C33)</f>
-        <v>119</v>
+      <c r="D34">
+        <f>SUM(C30:C34)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>41442</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <f>SUM(C2:C41)</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>LegacyIDE.e4xmi, Fragment und Prozessor Ansatz ausprobiert, Versionprobleme</t>
+  </si>
+  <si>
+    <t>Projekthandbuch, Statusbericht, Projektbericht</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +931,23 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>41443</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>41444</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -949,7 +965,7 @@
       </c>
       <c r="C42" s="4">
         <f>SUM(C2:C41)</f>
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +948,9 @@
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -965,7 +968,7 @@
       </c>
       <c r="C42" s="4">
         <f>SUM(C2:C41)</f>
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Projekthandbuch, Statusbericht, Projektbericht</t>
+  </si>
+  <si>
+    <t>Aspekt 2 Adapters and Dependency Services</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,9 +954,21 @@
       <c r="C37" s="1">
         <v>10</v>
       </c>
+      <c r="D37">
+        <f>SUM(C35:C37)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>2406.2013000000002</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -968,7 +983,7 @@
       </c>
       <c r="C42" s="4">
         <f>SUM(C2:C41)</f>
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2406.2013000000002</v>
+        <v>41449</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
@@ -971,7 +971,15 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>41450</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -983,7 +991,7 @@
       </c>
       <c r="C42" s="4">
         <f>SUM(C2:C41)</f>
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Aspekt 2 Adapters and Dependency Services</t>
+  </si>
+  <si>
+    <t>Besprechung mit Betreuer</t>
+  </si>
+  <si>
+    <t>Handbuch, Aspekt 2 Adapters and Dependency Services</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,16 +988,44 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>41451</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>41453</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="4">
-        <f>SUM(C2:C41)</f>
-        <v>153</v>
+      <c r="C46" s="4">
+        <f>SUM(C2:C45)</f>
+        <v>162.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,10 +1010,30 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>41455</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f>SUM(C38:C42)</f>
+        <v>16.5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>41457</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1025,7 +1045,7 @@
       </c>
       <c r="C46" s="4">
         <f>SUM(C2:C45)</f>
-        <v>162.5</v>
+        <v>166.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,16 +1036,36 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>41458</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="4">
-        <f>SUM(C2:C45)</f>
-        <v>166.5</v>
+      <c r="C50" s="4">
+        <f>SUM(C2:C49)</f>
+        <v>169.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Handbuch, Aspekt 2 Adapters and Dependency Services</t>
+  </si>
+  <si>
+    <t>Handbuch, Aspekt 2 Adapters and Dependency Services, Projektbericht</t>
+  </si>
+  <si>
+    <t>Besprechung Betreuer, Vorbereitung Zwischenreview</t>
   </si>
 </sst>
 </file>
@@ -511,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,13 +1053,41 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>41460</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>41461</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <f>SUM(C43:C46)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>41464</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1065,7 +1099,7 @@
       </c>
       <c r="C50" s="4">
         <f>SUM(C2:C49)</f>
-        <v>169.5</v>
+        <v>182.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>Besprechung Betreuer, Vorbereitung Zwischenreview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachbesprechung, Planung angepasst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwischenreview und Vorbereitung </t>
+  </si>
+  <si>
+    <t>Projektbericht angegangen</t>
+  </si>
+  <si>
+    <t>Handbuch, Aspekt 2 Adapters and Dependency Services, E 4.3</t>
+  </si>
+  <si>
+    <t>Handbuch, Aspekt 2 Adapters and Dependency Services, Projektbericht, E 4.3</t>
+  </si>
+  <si>
+    <t>Aktualisieren Wissen Handler / Command / Menü E4</t>
+  </si>
+  <si>
+    <t>Aktualisieren Wissen Action / Handler / Command / Menü E3</t>
   </si>
 </sst>
 </file>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1030,7 @@
         <v>41453</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>9</v>
@@ -1035,7 +1056,7 @@
         <v>41457</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -1046,7 +1067,7 @@
         <v>41458</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -1057,7 +1078,7 @@
         <v>41460</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>8</v>
@@ -1090,16 +1111,81 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="s">
+      <c r="A48" s="3">
+        <v>41465</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>41466</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41467</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>41468</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>41468</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <f>SUM(C47:C52)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="4">
-        <f>SUM(C2:C49)</f>
-        <v>182.5</v>
+      <c r="C57" s="4">
+        <f>SUM(C2:C52)</f>
+        <v>196.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Aktualisieren Wissen Action / Handler / Command / Menü E3</t>
+  </si>
+  <si>
+    <t>Handbuch, Aspekt 3 Commands / Handler, Menus, Key Bindings</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>41468</v>
+        <v>41469</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>46</v>
@@ -1170,7 +1173,15 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <v>41470</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -1184,8 +1195,8 @@
         <v>6</v>
       </c>
       <c r="C57" s="4">
-        <f>SUM(C2:C52)</f>
-        <v>196.5</v>
+        <f>SUM(C2:C53)</f>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,19 +1184,36 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <v>41471</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4">
-        <f>SUM(C2:C53)</f>
-        <v>199</v>
+      <c r="C60" s="4">
+        <f>SUM(C2:C54)</f>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41387</v>
       </c>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41388</v>
       </c>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41391</v>
       </c>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41392</v>
       </c>
@@ -610,8 +610,12 @@
         <f>SUM(C2:C5)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>D5-18</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41394</v>
       </c>
@@ -622,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41395</v>
       </c>
@@ -633,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41396</v>
       </c>
@@ -644,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41399</v>
       </c>
@@ -658,8 +662,12 @@
         <f>SUM(C6:C9)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>D9-18</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41400</v>
       </c>
@@ -670,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41400</v>
       </c>
@@ -681,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41403</v>
       </c>
@@ -692,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41406</v>
       </c>
@@ -706,8 +714,12 @@
         <f>SUM(C10:C13)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>D13-18</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41407</v>
       </c>
@@ -718,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41409</v>
       </c>
@@ -729,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41410</v>
       </c>
@@ -740,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41411</v>
       </c>
@@ -754,8 +766,12 @@
         <f>SUM(C14:C17)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>D17-18</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41414</v>
       </c>
@@ -766,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41415</v>
       </c>
@@ -777,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41418</v>
       </c>
@@ -788,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41419</v>
       </c>
@@ -799,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41420</v>
       </c>
@@ -813,8 +829,12 @@
         <f>SUM(C18:C22)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>D22-18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41421</v>
       </c>
@@ -825,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41422</v>
       </c>
@@ -836,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41426</v>
       </c>
@@ -850,8 +870,12 @@
         <f>SUM(C23:C25)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>D25-18</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41428</v>
       </c>
@@ -862,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41429</v>
       </c>
@@ -873,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41432</v>
       </c>
@@ -884,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41433</v>
       </c>
@@ -898,8 +922,12 @@
         <f>SUM(C26:C29)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>D29-18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41435</v>
       </c>
@@ -910,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41436</v>
       </c>
@@ -921,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41437</v>
       </c>
@@ -932,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41439</v>
       </c>
@@ -943,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41441</v>
       </c>
@@ -957,8 +985,12 @@
         <f>SUM(C30:C34)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>D34-18</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41442</v>
       </c>
@@ -969,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41443</v>
       </c>
@@ -980,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41444</v>
       </c>
@@ -994,8 +1026,12 @@
         <f>SUM(C35:C37)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f>D37-18</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41449</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41450</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41451</v>
       </c>
@@ -1028,7 +1064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41453</v>
       </c>
@@ -1039,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41455</v>
       </c>
@@ -1053,8 +1089,12 @@
         <f>SUM(C38:C42)</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f>D42-18</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41457</v>
       </c>
@@ -1065,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41458</v>
       </c>
@@ -1076,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41460</v>
       </c>
@@ -1087,7 +1127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41461</v>
       </c>
@@ -1101,8 +1141,12 @@
         <f>SUM(C43:C46)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>D46-18</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41464</v>
       </c>
@@ -1113,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41465</v>
       </c>
@@ -1124,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41466</v>
       </c>
@@ -1135,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41467</v>
       </c>
@@ -1146,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>41468</v>
       </c>
@@ -1157,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>41469</v>
       </c>
@@ -1171,8 +1215,12 @@
         <f>SUM(C47:C52)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f>D52-18</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41470</v>
       </c>
@@ -1183,7 +1231,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41471</v>
       </c>
@@ -1194,19 +1242,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>41472</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>6</v>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
@@ -1263,21 +1263,39 @@
       <c r="C56" s="1">
         <v>8</v>
       </c>
+      <c r="D56">
+        <f>SUM(C53:C56)</f>
+        <v>14.5</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3">
+        <v>41480</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="4">
-        <f>SUM(C2:C54)</f>
-        <v>202</v>
+      <c r="C62" s="4">
+        <f>SUM(C2:C61)</f>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -542,7 +542,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1280,15 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3">
+        <v>41481</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -1295,7 +1303,7 @@
       </c>
       <c r="C62" s="4">
         <f>SUM(C2:C61)</f>
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -542,7 +542,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,12 +1289,32 @@
       <c r="C58" s="1">
         <v>3</v>
       </c>
+      <c r="D58">
+        <f>SUM(C57:C58)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <v>41484</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3">
+        <v>41486</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1303,7 +1323,7 @@
       </c>
       <c r="C62" s="4">
         <f>SUM(C2:C61)</f>
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Handbuch, Aspekt 3 Commands / Handler, Menus, Key Bindings</t>
+  </si>
+  <si>
+    <t>Handbuch, Bericht, Aspekt 3 Commands / Handler, Menus, Key Bindings</t>
+  </si>
+  <si>
+    <t>Handbuch, Bericht, Aspekt 3 und 4, Statusbericht</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,20 +1316,40 @@
         <v>41486</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>41488</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C66" s="4">
         <f>SUM(C2:C61)</f>
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Handbuch, Bericht, Aspekt 3 und 4, Statusbericht</t>
+  </si>
+  <si>
+    <t>Handbuch, Bericht, Aspekt 4</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1337,15 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>41489</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Handbuch, Bericht, Aspekt 4</t>
+  </si>
+  <si>
+    <t>Projektbericht diverse Einträge</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1351,19 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3">
+        <v>41490</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D63">
+        <f>SUM(C59:C63)</f>
+        <v>21.5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -174,13 +174,16 @@
   </si>
   <si>
     <t>Projektbericht diverse Einträge</t>
+  </si>
+  <si>
+    <t>Projektbericht "Eigene Extension Points / Eigene Services", Besprechung , Aufäumarbeiten in den Dokumenten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -250,6 +259,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,14 +1376,34 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3">
+        <v>41494</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C69" s="4">
         <f>SUM(C2:C61)</f>
         <v>239</v>
       </c>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -564,7 +564,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,8 +1387,15 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="3">
+        <v>41495</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Projektbericht "Eigene Extension Points / Eigene Services", Besprechung , Aufäumarbeiten in den Dokumenten</t>
+  </si>
+  <si>
+    <t>Projektbericht "Eigene Extension Points / Eigene Services", Analyse RCS Services, Aufäumarbeiten in den Dokumenten</t>
+  </si>
+  <si>
+    <t>Analyse RCS Services</t>
+  </si>
+  <si>
+    <t>Aufräumarbeiten Dokumente, Implementierungsbeispiele aktualisieren</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,33 +1395,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41495</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="2" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>41496</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <f>SUM(C64:C66)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>41500</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="4">
-        <f>SUM(C2:C61)</f>
-        <v>239</v>
+      <c r="C72" s="4">
+        <f>SUM(C2:C71)</f>
+        <v>275.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,6 +1298,10 @@
         <f>SUM(C53:C56)</f>
         <v>14.5</v>
       </c>
+      <c r="E56">
+        <f>D56-18</f>
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -1324,6 +1328,10 @@
         <f>SUM(C57:C58)</f>
         <v>12</v>
       </c>
+      <c r="E58">
+        <f>D58-18</f>
+        <v>-6</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -1383,6 +1391,10 @@
         <f>SUM(C59:C63)</f>
         <v>21.5</v>
       </c>
+      <c r="E63">
+        <f>D63-18</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -1395,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41495</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41496</v>
       </c>
@@ -1420,8 +1432,12 @@
         <f>SUM(C64:C66)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f>D66-18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41500</v>
       </c>
@@ -1432,17 +1448,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="2" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>41501</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="4">
-        <f>SUM(C2:C71)</f>
-        <v>275.5</v>
+      <c r="C78" s="4">
+        <f>SUM(C2:C77)</f>
+        <v>283.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,8 +1460,23 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="3">
+        <v>41502</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <f>SUM(C67:C69)</f>
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <f>D69-18</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -1490,7 +1505,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>283.5</v>
+        <v>292.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,8 +1479,15 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="3">
+        <v>41506</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -1505,7 +1512,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>292.5</v>
+        <v>295.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,8 +1490,15 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="3">
+        <v>41512</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -1512,7 +1519,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>295.5</v>
+        <v>298.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,8 +1501,15 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="3">
+        <v>41514</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -1519,7 +1526,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>298.5</v>
+        <v>300.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Aufräumarbeiten Dokumente, Implementierungsbeispiele aktualisieren</t>
+  </si>
+  <si>
+    <t>Meeting mit Marc, Aufräumarbeiten Dokumente, Implementierungsbeispiele aktualisieren</t>
   </si>
 </sst>
 </file>
@@ -572,14 +575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1512,8 +1515,15 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="3">
+        <v>41515</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -1526,7 +1536,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>300.5</v>
+        <v>310.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,6 +1491,14 @@
       <c r="C70" s="1">
         <v>3</v>
       </c>
+      <c r="D70">
+        <f>C70</f>
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <f>D70</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -1526,8 +1534,15 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="3">
+        <v>41516</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1536,7 +1551,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>310.5</v>
+        <v>318.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1544,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>41517</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="2" t="s">
@@ -1551,7 +1562,7 @@
       </c>
       <c r="C78" s="4">
         <f>SUM(C2:C77)</f>
-        <v>318.5</v>
+        <v>319.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,15 +1554,46 @@
       <c r="C75" s="1">
         <v>1</v>
       </c>
+      <c r="D75">
+        <f>SUM(C71:C75)</f>
+        <v>24</v>
+      </c>
+      <c r="E75">
+        <f>D75</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>41519</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="4">
-        <f>SUM(C2:C77)</f>
-        <v>319.5</v>
+      <c r="C82" s="4">
+        <f>SUM(C2:C81)</f>
+        <v>328.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1575,15 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="3">
+        <v>41520</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -1593,7 +1600,7 @@
       </c>
       <c r="C82" s="4">
         <f>SUM(C2:C81)</f>
-        <v>328.5</v>
+        <v>331.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -185,10 +185,10 @@
     <t>Analyse RCS Services</t>
   </si>
   <si>
-    <t>Aufräumarbeiten Dokumente, Implementierungsbeispiele aktualisieren</t>
-  </si>
-  <si>
-    <t>Meeting mit Marc, Aufräumarbeiten Dokumente, Implementierungsbeispiele aktualisieren</t>
+    <t>Aufräumarbeiten Dokumente</t>
+  </si>
+  <si>
+    <t>Meeting mit Marc, Aufräumarbeiten Dokumente</t>
   </si>
 </sst>
 </file>
@@ -259,19 +259,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -575,15 +577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,1000 +601,1123 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>41387</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>4</v>
       </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>41388</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>4</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>41391</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>4</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>41392</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <f>SUM(C2:C5)</f>
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <f>D5-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>41394</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>41395</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>41396</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>41399</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <f>SUM(C6:C9)</f>
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <f>D9-18</f>
         <v>-7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>41400</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>8</v>
       </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>41400</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>41403</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>41406</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <f>SUM(C10:C13)</f>
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <f>D13-18</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>41407</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>41409</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>41410</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>1</v>
       </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>41411</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <f>SUM(C14:C17)</f>
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <f>D17-18</f>
         <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>41414</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>8</v>
       </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>41415</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>41418</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>41419</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>41420</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
         <f>SUM(C18:C22)</f>
         <v>22</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <f>D22-18</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>41421</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>41422</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>41426</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <f>SUM(C23:C25)</f>
         <v>9</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <f>D25-18</f>
         <v>-9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>41428</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>41429</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>41432</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>8</v>
       </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>41433</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <f>SUM(C26:C29)</f>
         <v>19</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <f>D29-18</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>41435</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>41436</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>2</v>
       </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>41437</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>1</v>
       </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>41439</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>5</v>
       </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>41441</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <f>SUM(C30:C34)</f>
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <f>D34-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>41442</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>41443</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>41444</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <f>SUM(C35:C37)</f>
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <f>D37-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>41449</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>41450</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>41451</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>0.5</v>
       </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>41453</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>9</v>
       </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>41455</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <f>SUM(C38:C42)</f>
         <v>16.5</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <f>D42-18</f>
         <v>-1.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>41457</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>41458</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>41460</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5">
         <v>8</v>
       </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>41461</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7">
         <f>SUM(C43:C46)</f>
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <f>D46-18</f>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>41464</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>41465</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5">
         <v>2</v>
       </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>41466</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5">
         <v>1</v>
       </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>41467</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5">
         <v>8</v>
       </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="6">
         <v>41468</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>1</v>
       </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="6">
         <v>41469</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
         <f>SUM(C47:C52)</f>
         <v>16</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <f>D52-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>41470</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>2.5</v>
       </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>41471</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="6">
         <v>41472</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>1</v>
       </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="6">
         <v>41473</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>8</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <f>SUM(C53:C56)</f>
         <v>14.5</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <f>D56-18</f>
         <v>-3.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>41480</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>9</v>
       </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>41481</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
         <f>SUM(C57:C58)</f>
         <v>12</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <f>D58-18</f>
         <v>-6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="6">
         <v>41484</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="6">
         <v>41486</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>9</v>
       </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="6">
         <v>41488</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>4</v>
       </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="6">
         <v>41489</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="6">
         <v>41490</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5">
         <v>2.5</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="7">
         <f>SUM(C59:C63)</f>
         <v>21.5</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <f>D63-18</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="6">
         <v>41494</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>9</v>
       </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="6">
         <v>41495</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>9</v>
       </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="6">
         <v>41496</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7">
         <f>SUM(C64:C66)</f>
         <v>21</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <f>D66-18</f>
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="6">
         <v>41500</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>10</v>
       </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="6">
         <v>41501</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>8</v>
       </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="6">
         <v>41502</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>9</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="7">
         <f>SUM(C67:C69)</f>
         <v>27</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="7">
         <f>D69-18</f>
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="6">
         <v>41506</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
         <f>C70</f>
         <v>3</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="7">
         <f>D70</f>
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="6">
         <v>41512</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="6">
         <v>41514</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>2</v>
       </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="6">
         <v>41515</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>10</v>
       </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="6">
         <v>41516</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>8</v>
       </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="6">
         <v>41517</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>1</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="7">
         <f>SUM(C71:C75)</f>
         <v>24</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="7">
         <f>D75</f>
         <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="6">
         <v>41519</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>9</v>
       </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="6">
         <v>41520</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="1">
-        <v>3</v>
-      </c>
+      <c r="C77" s="5">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="6">
+        <v>41521</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="5">
+        <v>10</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -1600,7 +1726,7 @@
       </c>
       <c r="C82" s="4">
         <f>SUM(C2:C81)</f>
-        <v>331.5</v>
+        <v>341.5</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12855"/>
+    <workbookView xWindow="14385" yWindow="45" windowWidth="14430" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -167,28 +167,25 @@
     <t>Handbuch, Bericht, Aspekt 3 Commands / Handler, Menus, Key Bindings</t>
   </si>
   <si>
-    <t>Handbuch, Bericht, Aspekt 3 und 4, Statusbericht</t>
-  </si>
-  <si>
     <t>Handbuch, Bericht, Aspekt 4</t>
   </si>
   <si>
     <t>Projektbericht diverse Einträge</t>
   </si>
   <si>
-    <t>Projektbericht "Eigene Extension Points / Eigene Services", Besprechung , Aufäumarbeiten in den Dokumenten</t>
-  </si>
-  <si>
-    <t>Projektbericht "Eigene Extension Points / Eigene Services", Analyse RCS Services, Aufäumarbeiten in den Dokumenten</t>
-  </si>
-  <si>
-    <t>Analyse RCS Services</t>
-  </si>
-  <si>
     <t>Aufräumarbeiten Dokumente</t>
   </si>
   <si>
     <t>Meeting mit Marc, Aufräumarbeiten Dokumente</t>
+  </si>
+  <si>
+    <t>Handbuch, Bericht, Aspekt 4, Statusbericht</t>
+  </si>
+  <si>
+    <t>Projektbericht Aspekt 4, Besprechung, Aufäumarbeiten in den Dokumenten</t>
+  </si>
+  <si>
+    <t>Vorbereitung und Durchführung Schlussreviewtermin, Aufräumarbeiten Dokumente</t>
   </si>
 </sst>
 </file>
@@ -259,18 +256,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -575,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,1132 +594,1157 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>41387</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>41388</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>41391</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>41392</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>SUM(C2:C5)</f>
         <v>16</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f>D5-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>41394</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>41395</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>41396</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>41399</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>SUM(C6:C9)</f>
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>D9-18</f>
         <v>-7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>41400</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>41400</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>41403</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>9</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>41406</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>SUM(C10:C13)</f>
         <v>25</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>D13-18</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>41407</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>41409</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>41410</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>41411</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>SUM(C14:C17)</f>
         <v>13</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>D17-18</f>
         <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>41414</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>41415</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>41418</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>41419</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>41420</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
         <f>SUM(C18:C22)</f>
         <v>22</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f>D22-18</f>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>41421</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>41422</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>41426</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>SUM(C23:C25)</f>
         <v>9</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f>D25-18</f>
         <v>-9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>41428</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>41429</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>41432</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>8</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>41433</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f>SUM(C26:C29)</f>
         <v>19</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f>D29-18</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>41435</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>41436</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>41437</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>41439</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>5</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>41441</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>6</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f>SUM(C30:C34)</f>
         <v>16</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f>D34-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>41442</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>41443</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="5">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>41444</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>10</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f>SUM(C35:C37)</f>
         <v>16</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f>D37-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>41449</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="5">
-        <v>3</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>41450</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="5">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>41451</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.5</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>41453</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>9</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41455</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f>SUM(C38:C42)</f>
         <v>16.5</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f>D42-18</f>
         <v>-1.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>41457</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="5">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>41458</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="5">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>41460</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>8</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>41461</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="5">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
         <f>SUM(C43:C46)</f>
         <v>17</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f>D46-18</f>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>41464</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>2</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>41465</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>2</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>41466</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>41467</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>8</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>41468</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>41469</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>2</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <f>SUM(C47:C52)</f>
         <v>16</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f>D52-18</f>
         <v>-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>41470</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>2.5</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>41471</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="5">
-        <v>3</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="C54" s="4">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>41472</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="6">
+        <f>SUM(C53:C55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E55" s="6">
+        <f>D55-18</f>
+        <v>-11.5</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>41473</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="5">
+        <v>41480</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>41481</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <f>SUM(C56:C57)</f>
+        <v>12</v>
+      </c>
+      <c r="E57" s="6">
+        <f>D57-18</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>41484</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>41486</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="4">
+        <v>9</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>41488</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="4">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>41489</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="4">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>41490</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D62" s="6">
+        <f>SUM(C58:C62)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E62" s="6">
+        <f>D62-18</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>41494</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>41495</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>41496</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6">
+        <f>SUM(C63:C65)</f>
+        <v>21</v>
+      </c>
+      <c r="E65" s="6">
+        <f>D65-18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>41500</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="4">
+        <v>10</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>41501</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="4">
         <v>8</v>
       </c>
-      <c r="D56" s="7">
-        <f>SUM(C53:C56)</f>
-        <v>14.5</v>
-      </c>
-      <c r="E56" s="7">
-        <f>D56-18</f>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>41480</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>41502</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="4">
         <v>9</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>41481</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="5">
-        <v>3</v>
-      </c>
-      <c r="D58" s="7">
-        <f>SUM(C57:C58)</f>
-        <v>12</v>
-      </c>
-      <c r="E58" s="7">
-        <f>D58-18</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>41484</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>41486</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="D68" s="6">
+        <f>SUM(C66:C68)</f>
+        <v>27</v>
+      </c>
+      <c r="E68" s="6">
+        <f>D68-18</f>
         <v>9</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>41488</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="5">
-        <v>4</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>41489</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="5">
-        <v>3</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>41490</v>
-      </c>
-      <c r="B63" s="5" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>41506</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C69" s="4">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <f>C69</f>
+        <v>3</v>
+      </c>
+      <c r="E69" s="6">
+        <f>D69</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>41512</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>41514</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>41515</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="4">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>41516</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="4">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>41517</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <f>SUM(C70:C74)</f>
+        <v>24</v>
+      </c>
+      <c r="E74" s="6">
+        <f>D74</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>41519</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="4">
+        <v>9</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>41520</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="4">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>41521</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="4">
+        <v>10</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>41522</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>41523</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="1">
         <v>2.5</v>
       </c>
-      <c r="D63" s="7">
-        <f>SUM(C59:C63)</f>
-        <v>21.5</v>
-      </c>
-      <c r="E63" s="7">
-        <f>D63-18</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>41494</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="5">
-        <v>9</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>41495</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="5">
-        <v>9</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>41496</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="5">
-        <v>3</v>
-      </c>
-      <c r="D66" s="7">
-        <f>SUM(C64:C66)</f>
-        <v>21</v>
-      </c>
-      <c r="E66" s="7">
-        <f>D66-18</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>41500</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="5">
-        <v>10</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>41501</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="5">
-        <v>8</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>41502</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="5">
-        <v>9</v>
-      </c>
-      <c r="D69" s="7">
-        <f>SUM(C67:C69)</f>
-        <v>27</v>
-      </c>
-      <c r="E69" s="7">
-        <f>D69-18</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>41506</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="5">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7">
-        <f>C70</f>
-        <v>3</v>
-      </c>
-      <c r="E70" s="7">
-        <f>D70</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>41512</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="5">
-        <v>3</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>41514</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="5">
-        <v>2</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>41515</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="5">
-        <v>10</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>41516</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="5">
-        <v>8</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>41517</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7">
-        <f>SUM(C71:C75)</f>
-        <v>24</v>
-      </c>
-      <c r="E75" s="7">
-        <f>D75</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>41519</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="5">
-        <v>9</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>41520</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>41521</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="5">
-        <v>10</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="4">
-        <f>SUM(C2:C81)</f>
-        <v>341.5</v>
+      <c r="C86" s="3">
+        <f>SUM(C2:C85)</f>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Vorbereitung und Durchführung Schlussreviewtermin, Aufräumarbeiten Dokumente</t>
+  </si>
+  <si>
+    <t>Aufräumarbeiten Dokumente, Poster</t>
   </si>
 </sst>
 </file>
@@ -570,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,8 +1655,8 @@
         <v>24</v>
       </c>
       <c r="E74" s="6">
-        <f>D74</f>
-        <v>24</v>
+        <f>D74-18</f>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1718,33 +1721,58 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>41524</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>41525</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <f>SUM(C75:C81)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>41526</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="3">
         <f>SUM(C2:C85)</f>
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -188,7 +188,7 @@
     <t>Vorbereitung und Durchführung Schlussreviewtermin, Aufräumarbeiten Dokumente</t>
   </si>
   <si>
-    <t>Aufräumarbeiten Dokumente, Poster</t>
+    <t>Abschlussarbeiten Dokumente</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,19 +1751,45 @@
         <v>41526</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C82" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="5">
+        <v>41527</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5">
+        <v>41528</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>41529</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85">
+        <f>SUM(C82:C85)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -1772,7 +1798,7 @@
       </c>
       <c r="C86" s="3">
         <f>SUM(C2:C85)</f>
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Geleistete Arbeiten.xlsx
+++ b/Planung/Geleistete Arbeiten.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,9 +1786,12 @@
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C85" s="1">
+        <v>9</v>
+      </c>
       <c r="D85">
         <f>SUM(C82:C85)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,7 +1801,7 @@
       </c>
       <c r="C86" s="3">
         <f>SUM(C2:C85)</f>
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
